--- a/artfynd/A 34786-2021.xlsx
+++ b/artfynd/A 34786-2021.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94692744</v>
+        <v>94693842</v>
       </c>
       <c r="B3" t="n">
-        <v>78596</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,14 +836,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Staberget, Mpd</t>
+          <t>Sta, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>529542.1341322724</v>
+        <v>529787.6677168193</v>
       </c>
       <c r="R3" t="n">
-        <v>6937987.647075845</v>
+        <v>6937997.680336708</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94692893</v>
+        <v>94693866</v>
       </c>
       <c r="B4" t="n">
-        <v>78596</v>
+        <v>78570</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,25 +925,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,14 +952,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Staberget, Mpd</t>
+          <t>Sta, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>529532.4741482906</v>
+        <v>529787.6677168193</v>
       </c>
       <c r="R4" t="n">
-        <v>6937931.774883721</v>
+        <v>6937997.680336708</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94693842</v>
+        <v>94693969</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1045,21 +1045,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,14 +1068,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Sta, Mpd</t>
+          <t>Staberget, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>529787.6677168193</v>
+        <v>529829.7281196868</v>
       </c>
       <c r="R5" t="n">
-        <v>6937997.680336708</v>
+        <v>6938403.286305362</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94692740</v>
+        <v>94693885</v>
       </c>
       <c r="B6" t="n">
         <v>78569</v>
@@ -1184,14 +1184,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Staberget, Mpd</t>
+          <t>stabeget, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>529542.1341322724</v>
+        <v>529791.909600144</v>
       </c>
       <c r="R6" t="n">
-        <v>6937987.647075845</v>
+        <v>6937988.036609955</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1234,6 +1234,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På gammal grov björk med uppsprucken bark</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1261,10 +1266,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94692732</v>
+        <v>94693905</v>
       </c>
       <c r="B7" t="n">
-        <v>96354</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1273,43 +1278,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1317,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>529533.64774426</v>
+        <v>529799.3124251956</v>
       </c>
       <c r="R7" t="n">
-        <v>6938007.39613072</v>
+        <v>6938191.876381581</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1390,7 +1382,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94692848</v>
+        <v>94692744</v>
       </c>
       <c r="B8" t="n">
         <v>78596</v>
@@ -1433,10 +1425,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>529468.4812002254</v>
+        <v>529542.1341322724</v>
       </c>
       <c r="R8" t="n">
-        <v>6937963.017895646</v>
+        <v>6937987.647075845</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1506,10 +1498,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>94692910</v>
+        <v>94692893</v>
       </c>
       <c r="B9" t="n">
-        <v>103250</v>
+        <v>78596</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1522,39 +1514,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221725</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1562,10 +1541,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>529552.7958173202</v>
+        <v>529532.4741482906</v>
       </c>
       <c r="R9" t="n">
-        <v>6937931.033756874</v>
+        <v>6937931.774883721</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1635,10 +1614,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>94693866</v>
+        <v>94692740</v>
       </c>
       <c r="B10" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1651,21 +1630,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1674,14 +1653,14 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Sta, Mpd</t>
+          <t>Staberget, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>529787.6677168193</v>
+        <v>529542.1341322724</v>
       </c>
       <c r="R10" t="n">
-        <v>6937997.680336708</v>
+        <v>6937987.647075845</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1751,10 +1730,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94692956</v>
+        <v>94692732</v>
       </c>
       <c r="B11" t="n">
-        <v>78569</v>
+        <v>96354</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,30 +1742,43 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1794,10 +1786,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>529576.9547078039</v>
+        <v>529533.64774426</v>
       </c>
       <c r="R11" t="n">
-        <v>6937914.19027761</v>
+        <v>6938007.39613072</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1867,10 +1859,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>94693969</v>
+        <v>94692848</v>
       </c>
       <c r="B12" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1879,25 +1871,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1910,10 +1902,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>529829.7281196868</v>
+        <v>529468.4812002254</v>
       </c>
       <c r="R12" t="n">
-        <v>6938403.286305362</v>
+        <v>6937963.017895646</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1983,10 +1975,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>94692634</v>
+        <v>94692910</v>
       </c>
       <c r="B13" t="n">
-        <v>96251</v>
+        <v>103250</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1999,26 +1991,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>219790</v>
+        <v>221725</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>(L.) A. Gray</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2027,10 +2031,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>529547.8747119794</v>
+        <v>529552.7958173202</v>
       </c>
       <c r="R13" t="n">
-        <v>6938068.840074595</v>
+        <v>6937931.033756874</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2100,7 +2104,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>94693885</v>
+        <v>94692956</v>
       </c>
       <c r="B14" t="n">
         <v>78569</v>
@@ -2139,14 +2143,14 @@
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>stabeget, Mpd</t>
+          <t>Staberget, Mpd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>529791.909600144</v>
+        <v>529576.9547078039</v>
       </c>
       <c r="R14" t="n">
-        <v>6937988.036609955</v>
+        <v>6937914.19027761</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2189,11 +2193,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På gammal grov björk med uppsprucken bark</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2221,10 +2220,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>94693081</v>
+        <v>94692634</v>
       </c>
       <c r="B15" t="n">
-        <v>96354</v>
+        <v>96251</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2237,38 +2236,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221952</v>
+        <v>219790</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
@@ -2277,10 +2264,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>529632.0419017738</v>
+        <v>529547.8747119794</v>
       </c>
       <c r="R15" t="n">
-        <v>6937898.084041415</v>
+        <v>6938068.840074595</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2350,10 +2337,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>94693905</v>
+        <v>94693081</v>
       </c>
       <c r="B16" t="n">
-        <v>89392</v>
+        <v>96354</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2362,30 +2349,43 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2393,10 +2393,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>529799.3124251956</v>
+        <v>529632.0419017738</v>
       </c>
       <c r="R16" t="n">
-        <v>6938191.876381581</v>
+        <v>6937898.084041415</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>

--- a/artfynd/A 34786-2021.xlsx
+++ b/artfynd/A 34786-2021.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94693842</v>
+        <v>94692744</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>78596</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,14 +836,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Sta, Mpd</t>
+          <t>Staberget, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>529787.6677168193</v>
+        <v>529542.1341322724</v>
       </c>
       <c r="R3" t="n">
-        <v>6937997.680336708</v>
+        <v>6937987.647075845</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94693866</v>
+        <v>94692893</v>
       </c>
       <c r="B4" t="n">
-        <v>78570</v>
+        <v>78596</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,25 +925,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,14 +952,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sta, Mpd</t>
+          <t>Staberget, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>529787.6677168193</v>
+        <v>529532.4741482906</v>
       </c>
       <c r="R4" t="n">
-        <v>6937997.680336708</v>
+        <v>6937931.774883721</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94693969</v>
+        <v>94693842</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1045,21 +1045,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,14 +1068,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Staberget, Mpd</t>
+          <t>Sta, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>529829.7281196868</v>
+        <v>529787.6677168193</v>
       </c>
       <c r="R5" t="n">
-        <v>6938403.286305362</v>
+        <v>6937997.680336708</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94693885</v>
+        <v>94692740</v>
       </c>
       <c r="B6" t="n">
         <v>78569</v>
@@ -1184,14 +1184,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>stabeget, Mpd</t>
+          <t>Staberget, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>529791.909600144</v>
+        <v>529542.1341322724</v>
       </c>
       <c r="R6" t="n">
-        <v>6937988.036609955</v>
+        <v>6937987.647075845</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1234,11 +1234,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På gammal grov björk med uppsprucken bark</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1266,10 +1261,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94693905</v>
+        <v>94692732</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>96354</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1278,30 +1273,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1309,10 +1317,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>529799.3124251956</v>
+        <v>529533.64774426</v>
       </c>
       <c r="R7" t="n">
-        <v>6938191.876381581</v>
+        <v>6938007.39613072</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1382,7 +1390,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94692744</v>
+        <v>94692848</v>
       </c>
       <c r="B8" t="n">
         <v>78596</v>
@@ -1425,10 +1433,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>529542.1341322724</v>
+        <v>529468.4812002254</v>
       </c>
       <c r="R8" t="n">
-        <v>6937987.647075845</v>
+        <v>6937963.017895646</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1498,10 +1506,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>94692893</v>
+        <v>94692910</v>
       </c>
       <c r="B9" t="n">
-        <v>78596</v>
+        <v>103250</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1514,26 +1522,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6462</v>
+        <v>221725</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>(L.) A. Gray</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1541,10 +1562,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>529532.4741482906</v>
+        <v>529552.7958173202</v>
       </c>
       <c r="R9" t="n">
-        <v>6937931.774883721</v>
+        <v>6937931.033756874</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1614,10 +1635,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>94692740</v>
+        <v>94693866</v>
       </c>
       <c r="B10" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1630,21 +1651,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1653,14 +1674,14 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Staberget, Mpd</t>
+          <t>Sta, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>529542.1341322724</v>
+        <v>529787.6677168193</v>
       </c>
       <c r="R10" t="n">
-        <v>6937987.647075845</v>
+        <v>6937997.680336708</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1730,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94692732</v>
+        <v>94692956</v>
       </c>
       <c r="B11" t="n">
-        <v>96354</v>
+        <v>78569</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1742,43 +1763,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1786,10 +1794,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>529533.64774426</v>
+        <v>529576.9547078039</v>
       </c>
       <c r="R11" t="n">
-        <v>6938007.39613072</v>
+        <v>6937914.19027761</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1859,10 +1867,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>94692848</v>
+        <v>94693969</v>
       </c>
       <c r="B12" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1871,25 +1879,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1902,10 +1910,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>529468.4812002254</v>
+        <v>529829.7281196868</v>
       </c>
       <c r="R12" t="n">
-        <v>6937963.017895646</v>
+        <v>6938403.286305362</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1975,10 +1983,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>94692910</v>
+        <v>94692634</v>
       </c>
       <c r="B13" t="n">
-        <v>103250</v>
+        <v>96251</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1991,38 +1999,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221725</v>
+        <v>219790</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2031,10 +2027,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>529552.7958173202</v>
+        <v>529547.8747119794</v>
       </c>
       <c r="R13" t="n">
-        <v>6937931.033756874</v>
+        <v>6938068.840074595</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2104,7 +2100,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>94692956</v>
+        <v>94693885</v>
       </c>
       <c r="B14" t="n">
         <v>78569</v>
@@ -2143,14 +2139,14 @@
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Staberget, Mpd</t>
+          <t>stabeget, Mpd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>529576.9547078039</v>
+        <v>529791.909600144</v>
       </c>
       <c r="R14" t="n">
-        <v>6937914.19027761</v>
+        <v>6937988.036609955</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2193,6 +2189,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På gammal grov björk med uppsprucken bark</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2220,10 +2221,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>94692634</v>
+        <v>94693081</v>
       </c>
       <c r="B15" t="n">
-        <v>96251</v>
+        <v>96354</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2236,26 +2237,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219790</v>
+        <v>221952</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
@@ -2264,10 +2277,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>529547.8747119794</v>
+        <v>529632.0419017738</v>
       </c>
       <c r="R15" t="n">
-        <v>6938068.840074595</v>
+        <v>6937898.084041415</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2337,10 +2350,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>94693081</v>
+        <v>94693905</v>
       </c>
       <c r="B16" t="n">
-        <v>96354</v>
+        <v>89392</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2349,43 +2362,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2393,10 +2393,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>529632.0419017738</v>
+        <v>529799.3124251956</v>
       </c>
       <c r="R16" t="n">
-        <v>6937898.084041415</v>
+        <v>6938191.876381581</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
